--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>63.211268</v>
+        <v>13.32779766666667</v>
       </c>
       <c r="H2">
-        <v>189.633804</v>
+        <v>39.983393</v>
       </c>
       <c r="I2">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="J2">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,33 +552,33 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7527293333333334</v>
+        <v>0.1440466666666667</v>
       </c>
       <c r="N2">
-        <v>2.258188</v>
+        <v>0.43214</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1606272543719576</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1606272543719576</v>
       </c>
       <c r="Q2">
-        <v>47.58097562079467</v>
+        <v>1.919824827891111</v>
       </c>
       <c r="R2">
-        <v>428.228780587152</v>
+        <v>17.27842345102</v>
       </c>
       <c r="S2">
-        <v>0.4922609885657722</v>
+        <v>0.02726219593244899</v>
       </c>
       <c r="T2">
-        <v>0.4922609885657722</v>
+        <v>0.02726219593244899</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.30706799999999</v>
+        <v>13.32779766666667</v>
       </c>
       <c r="H3">
-        <v>129.921204</v>
+        <v>39.983393</v>
       </c>
       <c r="I3">
-        <v>0.3372560111523963</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="J3">
-        <v>0.3372560111523963</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,27 +620,27 @@
         <v>2.258188</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8393727456280424</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8393727456280424</v>
       </c>
       <c r="Q3">
-        <v>32.59850042426133</v>
+        <v>10.03222425243156</v>
       </c>
       <c r="R3">
-        <v>293.386503818352</v>
+        <v>90.29001827188401</v>
       </c>
       <c r="S3">
-        <v>0.3372560111523963</v>
+        <v>0.1424611554318163</v>
       </c>
       <c r="T3">
-        <v>0.3372560111523963</v>
+        <v>0.1424611554318163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,241 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>43.30706799999999</v>
+      </c>
+      <c r="H4">
+        <v>129.921204</v>
+      </c>
+      <c r="I4">
+        <v>0.5514955210569645</v>
+      </c>
+      <c r="J4">
+        <v>0.5514955210569645</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.1440466666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.43214</v>
+      </c>
+      <c r="O4">
+        <v>0.1606272543719576</v>
+      </c>
+      <c r="P4">
+        <v>0.1606272543719576</v>
+      </c>
+      <c r="Q4">
+        <v>6.238238788506666</v>
+      </c>
+      <c r="R4">
+        <v>56.14414909656</v>
+      </c>
+      <c r="S4">
+        <v>0.08858521134581236</v>
+      </c>
+      <c r="T4">
+        <v>0.08858521134581236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>43.30706799999999</v>
+      </c>
+      <c r="H5">
+        <v>129.921204</v>
+      </c>
+      <c r="I5">
+        <v>0.5514955210569645</v>
+      </c>
+      <c r="J5">
+        <v>0.5514955210569645</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.7527293333333334</v>
+      </c>
+      <c r="N5">
+        <v>2.258188</v>
+      </c>
+      <c r="O5">
+        <v>0.8393727456280424</v>
+      </c>
+      <c r="P5">
+        <v>0.8393727456280424</v>
+      </c>
+      <c r="Q5">
+        <v>32.59850042426133</v>
+      </c>
+      <c r="R5">
+        <v>293.386503818352</v>
+      </c>
+      <c r="S5">
+        <v>0.4629103097111522</v>
+      </c>
+      <c r="T5">
+        <v>0.4629103097111522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>21.891734</v>
       </c>
-      <c r="H4">
-        <v>65.675202</v>
-      </c>
-      <c r="I4">
-        <v>0.1704830002818315</v>
-      </c>
-      <c r="J4">
-        <v>0.1704830002818315</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="H6">
+        <v>65.67520200000001</v>
+      </c>
+      <c r="I6">
+        <v>0.27878112757877</v>
+      </c>
+      <c r="J6">
+        <v>0.27878112757877</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1440466666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.43214</v>
+      </c>
+      <c r="O6">
+        <v>0.1606272543719576</v>
+      </c>
+      <c r="P6">
+        <v>0.1606272543719576</v>
+      </c>
+      <c r="Q6">
+        <v>3.153431310253334</v>
+      </c>
+      <c r="R6">
+        <v>28.38088179228001</v>
+      </c>
+      <c r="S6">
+        <v>0.04477984709369627</v>
+      </c>
+      <c r="T6">
+        <v>0.04477984709369627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>21.891734</v>
+      </c>
+      <c r="H7">
+        <v>65.67520200000001</v>
+      </c>
+      <c r="I7">
+        <v>0.27878112757877</v>
+      </c>
+      <c r="J7">
+        <v>0.27878112757877</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>0.7527293333333334</v>
       </c>
-      <c r="N4">
+      <c r="N7">
         <v>2.258188</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
+      <c r="O7">
+        <v>0.8393727456280424</v>
+      </c>
+      <c r="P7">
+        <v>0.8393727456280424</v>
+      </c>
+      <c r="Q7">
         <v>16.47855033933067</v>
       </c>
-      <c r="R4">
+      <c r="R7">
         <v>148.306953053976</v>
       </c>
-      <c r="S4">
-        <v>0.1704830002818315</v>
-      </c>
-      <c r="T4">
-        <v>0.1704830002818315</v>
+      <c r="S7">
+        <v>0.2340012804850738</v>
+      </c>
+      <c r="T7">
+        <v>0.2340012804850738</v>
       </c>
     </row>
   </sheetData>
